--- a/Weekly_Report/2020_kouki/final_results/icchido_kakutyou_moe.xlsx
+++ b/Weekly_Report/2020_kouki/final_results/icchido_kakutyou_moe.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtlil\Documents\GitHub\experiment\Weekly_Report\2020_kouki\final_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681C1A45-56EE-481E-B978-A5AE3239C41D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2909A654-27BD-4B00-AB0D-C055735F97B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -146,6 +147,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="184" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -201,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -212,6 +216,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -494,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
@@ -5190,59 +5198,59 @@
         <v>1</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G102" si="16">IF(B67=$G$1,1,0)</f>
+        <f t="shared" ref="G67:G101" si="16">IF(B67=$G$1,1,0)</f>
         <v>0</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H102" si="17">IF(B67=$H$1,1,0)</f>
+        <f t="shared" ref="H67:H101" si="17">IF(B67=$H$1,1,0)</f>
         <v>1</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I102" si="18">IF(B67=$I$1,1,0)</f>
+        <f t="shared" ref="I67:I101" si="18">IF(B67=$I$1,1,0)</f>
         <v>0</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J102" si="19">IF(B67=$J$1,1,0)</f>
+        <f t="shared" ref="J67:J101" si="19">IF(B67=$J$1,1,0)</f>
         <v>0</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K102" si="20">IF(B67=$K$1,1,0)</f>
+        <f t="shared" ref="K67:K101" si="20">IF(B67=$K$1,1,0)</f>
         <v>0</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L102" si="21">IF(B67=$L$1,1,0)</f>
+        <f t="shared" ref="L67:L101" si="21">IF(B67=$L$1,1,0)</f>
         <v>0</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M102" si="22">IF(B67=$M$1,1,0)</f>
+        <f t="shared" ref="M67:M101" si="22">IF(B67=$M$1,1,0)</f>
         <v>0</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N102" si="23">IF(C67=$G$1,1,0)</f>
+        <f t="shared" ref="N67:N101" si="23">IF(C67=$G$1,1,0)</f>
         <v>0</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O102" si="24">IF(C67=$H$1,1,0)</f>
+        <f t="shared" ref="O67:O101" si="24">IF(C67=$H$1,1,0)</f>
         <v>1</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P102" si="25">IF(C67=$I$1,1,0)</f>
+        <f t="shared" ref="P67:P101" si="25">IF(C67=$I$1,1,0)</f>
         <v>0</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q102" si="26">IF(C67=$J$1,1,0)</f>
+        <f t="shared" ref="Q67:Q101" si="26">IF(C67=$J$1,1,0)</f>
         <v>0</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R102" si="27">IF(C67=$K$1,1,0)</f>
+        <f t="shared" ref="R67:R101" si="27">IF(C67=$K$1,1,0)</f>
         <v>0</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S102" si="28">IF(C67=$L$1,1,0)</f>
+        <f t="shared" ref="S67:S101" si="28">IF(C67=$L$1,1,0)</f>
         <v>0</v>
       </c>
       <c r="T67">
-        <f t="shared" ref="T67:T102" si="29">IF(C67=$M$1,1,0)</f>
+        <f t="shared" ref="T67:T101" si="29">IF(C67=$M$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7730,4 +7738,106 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3032F0-EA1F-4479-BBE2-1A33030FCB5B}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>209</v>
+      </c>
+      <c r="B1" s="4">
+        <f>A1*100/$A$9</f>
+        <v>31.714719271623672</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>169</v>
+      </c>
+      <c r="B2" s="4">
+        <f t="shared" ref="B2:B8" si="0">A2*100/$A$9</f>
+        <v>25.644916540212442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>101</v>
+      </c>
+      <c r="B3" s="4">
+        <f t="shared" si="0"/>
+        <v>15.326251896813353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>79</v>
+      </c>
+      <c r="B4" s="4">
+        <f t="shared" si="0"/>
+        <v>11.987860394537178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>42</v>
+      </c>
+      <c r="B5" s="4">
+        <f t="shared" si="0"/>
+        <v>6.3732928679817906</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4">
+        <f t="shared" si="0"/>
+        <v>3.0349013657056148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4279210925644916</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>3.4901365705614569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <f>SUM(A1:A8)</f>
+        <v>659</v>
+      </c>
+      <c r="B9" s="5">
+        <f>SUM(B1:B8)</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Weekly_Report/2020_kouki/final_results/icchido_kakutyou_moe.xlsx
+++ b/Weekly_Report/2020_kouki/final_results/icchido_kakutyou_moe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtlil\Documents\GitHub\experiment\Weekly_Report\2020_kouki\final_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2909A654-27BD-4B00-AB0D-C055735F97B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3037EEAE-284A-4F4E-9991-521D8A07B8AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1185" yWindow="-13275" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>恐怖</t>
-  </si>
-  <si>
-    <t>落胆</t>
   </si>
   <si>
     <t>t vs y</t>
@@ -148,7 +145,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="184" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -216,10 +213,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -502,14 +499,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T103"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" topLeftCell="C91" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="13.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -523,49 +520,49 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -576,7 +573,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <f>IF(B2=C2,1,0)</f>
@@ -1641,7 +1638,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -1693,7 +1690,7 @@
       </c>
       <c r="R17">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17">
         <f t="shared" si="13"/>
@@ -1783,7 +1780,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
@@ -1831,7 +1828,7 @@
       </c>
       <c r="Q19">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19">
         <f t="shared" si="12"/>
@@ -7531,7 +7528,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>10</v>
@@ -7661,7 +7658,7 @@
     </row>
     <row r="102" spans="1:20">
       <c r="E102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F102">
         <f>F101/99</f>
@@ -7709,11 +7706,11 @@
       </c>
       <c r="Q102">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R102">
         <f t="shared" si="31"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S102">
         <f t="shared" si="31"/>
@@ -7731,12 +7728,13 @@
       </c>
       <c r="T103">
         <f>SUM(N102:T102)</f>
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7744,7 +7742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3032F0-EA1F-4479-BBE2-1A33030FCB5B}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
